--- a/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.963038120595563</v>
+        <v>3.300636501780931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.637137513538318</v>
+        <v>2.09635580516609</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.978517123206945</v>
+        <v>-8.248216089586501</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.628251630514395</v>
+        <v>-1.217117267994749</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.757647748666777</v>
+        <v>-8.670562005416837</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-19.02894108699995</v>
+        <v>-18.39721623313166</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.210854046293068</v>
+        <v>2.138960878397599</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.295443175597191</v>
+        <v>-1.336162958956695</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-11.47174067792281</v>
+        <v>-11.89744349729268</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.59304493154941</v>
+        <v>14.98805181218649</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.47367087400247</v>
+        <v>14.20368372862725</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.690668152944326</v>
+        <v>7.299742739454537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.22183794323284</v>
+        <v>10.82423486622534</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.533444711385815</v>
+        <v>4.238762038646173</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-3.552487579895753</v>
+        <v>-2.82262976987454</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.03226906776859</v>
+        <v>10.83993951616918</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.498670968728669</v>
+        <v>7.279215923638405</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.6182430038138987</v>
+        <v>-0.7546861707744845</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1117587117726457</v>
+        <v>0.1248297660966135</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.05315967796987078</v>
+        <v>0.07555901975165635</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3080985524364443</v>
+        <v>-0.3120279057270688</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03813955266209663</v>
+        <v>-0.02944868665533226</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2040499811613645</v>
+        <v>-0.2081404996886896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4628622892470875</v>
+        <v>-0.4469165401667363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06743247923510119</v>
+        <v>0.06275286128148508</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03939517403482065</v>
+        <v>-0.04125642318816011</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3505853640425558</v>
+        <v>-0.3614641041948461</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6650251955739804</v>
+        <v>0.6821046584898397</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6003785259320582</v>
+        <v>0.6444075051394714</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2870764825785844</v>
+        <v>0.3378418517917571</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3076253134188199</v>
+        <v>0.30080620559042</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09849503296958081</v>
+        <v>0.1156027362331004</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09382241627730233</v>
+        <v>-0.07298363763682313</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3721840221038491</v>
+        <v>0.3574216416212319</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2471625691515772</v>
+        <v>0.247145677974316</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.0212792672233907</v>
+        <v>-0.02482913353822219</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-3.088131586967541</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-18.4534088441994</v>
+        <v>-18.45340884419941</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.415575033517197</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.609907995811095</v>
+        <v>4.569901996318901</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.42319506249952</v>
+        <v>-6.095226201464098</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.76975476118592</v>
+        <v>-9.941245652504641</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9304349342844566</v>
+        <v>-1.711584231649023</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.036661232832188</v>
+        <v>-8.909489464045759</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-23.95894081587983</v>
+        <v>-24.23457495125</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.563759258271736</v>
+        <v>3.831947959197579</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.254097735126355</v>
+        <v>-5.347142345000988</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.73997328886496</v>
+        <v>-14.83134848673786</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.64688917363825</v>
+        <v>14.89922735612318</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.441750405535277</v>
+        <v>4.309560454815403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.109187284662637</v>
+        <v>2.636392329862221</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.59822195308332</v>
+        <v>10.53548461002609</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.95473220482002</v>
+        <v>2.204546804259044</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-12.54882524542277</v>
+        <v>-11.99972285453626</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.61530608008356</v>
+        <v>11.64261263018376</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.428037775609177</v>
+        <v>2.249881511575365</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-6.786470547496461</v>
+        <v>-6.267474869620254</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.06866507328573325</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.410314338937484</v>
+        <v>-0.4103143389374841</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1985075087485008</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1363006977638958</v>
+        <v>0.1322793715839103</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1667852111578825</v>
+        <v>-0.1817420544773286</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3307052420278077</v>
+        <v>-0.3036062695649153</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.01888049330127565</v>
+        <v>-0.0335447500185226</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1905028930421968</v>
+        <v>-0.1871158391521969</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5096378600354972</v>
+        <v>-0.5076681670038818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09339291602993843</v>
+        <v>0.09786761112077495</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1342988720894489</v>
+        <v>-0.1359528907980891</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3771298519241068</v>
+        <v>-0.384409545752687</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5165779539058949</v>
+        <v>0.5171925820315966</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1572752757832792</v>
+        <v>0.1564790065249225</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07098973098874461</v>
+        <v>0.09328478989448288</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2566337748189569</v>
+        <v>0.2533933585584632</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04619220913993165</v>
+        <v>0.05265076864212991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2944521433582277</v>
+        <v>-0.2826229187726855</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3315425709197354</v>
+        <v>0.3303852345099376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06765284896498248</v>
+        <v>0.06230646139050182</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1851256308680228</v>
+        <v>-0.1747593320497212</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.4134366676299628</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-12.63298295454842</v>
+        <v>-12.63298295454843</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.106895542467213</v>
@@ -1092,7 +1092,7 @@
         <v>-3.464105245849736</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-18.79298618274647</v>
+        <v>-18.79298618274648</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7866299122830875</v>
+        <v>0.8172505650693518</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.041628822594821</v>
+        <v>-5.891403223777054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.14062596852338</v>
+        <v>-17.82365345267625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.224419053964752</v>
+        <v>-2.747400712145611</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.87337079624787</v>
+        <v>-10.82126587877218</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-29.11044793979851</v>
+        <v>-29.18990707391068</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.2718145162681608</v>
+        <v>0.3404994183146694</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.282072294567857</v>
+        <v>-7.106652316622128</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-22.60809759653413</v>
+        <v>-22.21487399879298</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.8631467219458</v>
+        <v>11.91912688676499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.962942111788087</v>
+        <v>5.176570626923618</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.250203504365022</v>
+        <v>-7.598944526719848</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.314383961363056</v>
+        <v>7.954289264377401</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.4042933105603642</v>
+        <v>0.3917349102082321</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-19.45594451172958</v>
+        <v>-18.87866774937987</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.961132169958534</v>
+        <v>7.938242117450231</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5663141278625301</v>
+        <v>0.240769787411968</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-15.00727480691475</v>
+        <v>-14.81406979583875</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.01121468386353403</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3426762093958188</v>
+        <v>-0.3426762093958189</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.03771096381925046</v>
@@ -1197,7 +1197,7 @@
         <v>-0.07412552570124172</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.4021355823300181</v>
+        <v>-0.4021355823300183</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.01992067249907998</v>
+        <v>0.02176928784385098</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1487755917239385</v>
+        <v>-0.1517437478186515</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4575634168340854</v>
+        <v>-0.4577076301929681</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05733550425899005</v>
+        <v>-0.04623048695705352</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1871948752901712</v>
+        <v>-0.188770825636834</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5026850027301778</v>
+        <v>-0.498773137807906</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.005833658761451995</v>
+        <v>0.006950349858755288</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.150266508176658</v>
+        <v>-0.1463572509142874</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4624079886325583</v>
+        <v>-0.4623545287230039</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3518141307323563</v>
+        <v>0.3535923828763869</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1455014325432565</v>
+        <v>0.1452742399656487</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.203541411761426</v>
+        <v>-0.2173811935901877</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1350501431444824</v>
+        <v>0.1522473348086939</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.008262604456010889</v>
+        <v>0.005399725072234461</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.3659227824826933</v>
+        <v>-0.3551078781193036</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1789314100034599</v>
+        <v>0.1808583905485104</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.01278617304247481</v>
+        <v>0.005171996129108227</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.3362843300626709</v>
+        <v>-0.3309916066355494</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.2652991404953009</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-17.95948099938092</v>
+        <v>-17.95948099938091</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.926073312314188</v>
+        <v>-5.614319829757277</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.238920371703198</v>
+        <v>-2.159668780493458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.25424891965643</v>
+        <v>-18.87736278737614</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9538737794464532</v>
+        <v>1.464025657844634</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.46363642273709</v>
+        <v>-10.29057938251195</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-28.54832834582978</v>
+        <v>-28.55030808687692</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.409404453509968</v>
+        <v>-0.658455510679222</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.062244078799164</v>
+        <v>-4.580152098433276</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-21.67858291961529</v>
+        <v>-21.70089653005318</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.069117699280475</v>
+        <v>6.870742165377338</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.95464486267219</v>
+        <v>11.00005792136616</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.104618416906321</v>
+        <v>-7.348535063255647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.14157801401928</v>
+        <v>12.18194833047572</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.234400870027246</v>
+        <v>0.5816284283582419</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-18.38022923963387</v>
+        <v>-18.6813554539301</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.15955347128933</v>
+        <v>7.932024346132984</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.375559369043526</v>
+        <v>3.734658732201288</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-13.81099619964631</v>
+        <v>-14.2879680456619</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.08184455919160298</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2484790504077597</v>
+        <v>-0.2484790504077598</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1001479306804678</v>
@@ -1411,7 +1411,7 @@
         <v>-0.004515358385203648</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3056681336134844</v>
+        <v>-0.3056681336134843</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08996336766053467</v>
+        <v>-0.1024746027195523</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.04176538927175993</v>
+        <v>-0.03908881071986493</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3382872371401806</v>
+        <v>-0.3525048727205071</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.01406160619033068</v>
+        <v>0.01965504142661858</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1496478792356844</v>
+        <v>-0.1483752253059335</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4103617499525561</v>
+        <v>-0.4121971797706126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.006735913587069085</v>
+        <v>-0.01069660476944816</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.0666331011829123</v>
+        <v>-0.07508527738304932</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3558777717516012</v>
+        <v>-0.3576044396718522</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1456088935104017</v>
+        <v>0.144214222269949</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2069666456551166</v>
+        <v>0.2340619387158008</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1294884778455165</v>
+        <v>-0.1546142934082503</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1912073870175804</v>
+        <v>0.1900818291947135</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01921195560516248</v>
+        <v>0.00917463747866658</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2905637762071426</v>
+        <v>-0.2951843043704093</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.144472115347294</v>
+        <v>0.1411583269966501</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.07827526894070166</v>
+        <v>0.06686554311559711</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2453960584117352</v>
+        <v>-0.2522204980473041</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>2.720387915648714</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-24.93501936509483</v>
+        <v>-24.93501936509482</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.258056742613481</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.906630176636274</v>
+        <v>-4.814181900613726</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-16.46574040137051</v>
+        <v>-15.67998559835387</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-30.93986808937491</v>
+        <v>-30.80817495115843</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.471830531138566</v>
+        <v>2.323990398453629</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.614281856774415</v>
+        <v>-3.305268728403043</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-30.01467823325259</v>
+        <v>-29.79293188996061</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3171368275017684</v>
+        <v>0.5428238861982053</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.87058697103074</v>
+        <v>-7.71817400620032</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-28.77034014143188</v>
+        <v>-29.50387712728034</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.921833158143922</v>
+        <v>7.401832219314448</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.976861143910899</v>
+        <v>-3.273658603203308</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-20.19784655607732</v>
+        <v>-19.35487395771748</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.59001133360714</v>
+        <v>12.33978637439321</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.192610287692958</v>
+        <v>7.61110787261092</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-20.27383481099502</v>
+        <v>-19.70370448445087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.999483006537887</v>
+        <v>8.107447558435927</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8299431270938074</v>
+        <v>0.3703863508764343</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-21.35169944110456</v>
+        <v>-21.3587695253081</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.03392897915249897</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.3109923211093649</v>
+        <v>-0.3109923211093648</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.0542076482803919</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07387851303966925</v>
+        <v>-0.05993233777903162</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2059687299889844</v>
+        <v>-0.1973977809628897</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3912188658108145</v>
+        <v>-0.388230817168193</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03062214617163195</v>
+        <v>0.02848212492137174</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03147260994466244</v>
+        <v>-0.0404334595807739</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3615421056410792</v>
+        <v>-0.3621441142833375</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.003866461372388151</v>
+        <v>0.007718363842589896</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.09744070249056958</v>
+        <v>-0.0927244950562383</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3591043372289615</v>
+        <v>-0.3656092793897795</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.07884049282660344</v>
+        <v>0.09895433758389231</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.05213337881859997</v>
+        <v>-0.0435903663650158</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2706509498592412</v>
+        <v>-0.2635798246965779</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1637640114822633</v>
+        <v>0.1608662907437886</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1066203066858622</v>
+        <v>0.0988545795209793</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.2620868032899498</v>
+        <v>-0.2535723449905205</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1040780082614181</v>
+        <v>0.1069409078446461</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.01112821534580791</v>
+        <v>0.0055886346813475</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.2772736830270416</v>
+        <v>-0.2809496322117842</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.668366038036092</v>
+        <v>7.982177248205992</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.617150351412151</v>
+        <v>2.800250949529414</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-33.89429350044028</v>
+        <v>-33.56341079003354</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.076123672872239</v>
+        <v>-1.788388517699769</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.69822201324101</v>
+        <v>-5.563037827263525</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-31.52099472436005</v>
+        <v>-31.19724605255291</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.899059969781832</v>
+        <v>3.670044658410406</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.7133173884767563</v>
+        <v>-0.6864714520377718</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-31.18877417180966</v>
+        <v>-31.42952225748835</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.81737851397866</v>
+        <v>18.32866823705559</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>14.01082980171319</v>
+        <v>13.31693196431475</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-20.99237581559176</v>
+        <v>-21.14805620228563</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.821943702262063</v>
+        <v>5.422432760317868</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.298947178917117</v>
+        <v>2.34101404697422</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-23.34014268983133</v>
+        <v>-23.00120918318756</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.4137754689585</v>
+        <v>10.11614750023184</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.135676566042733</v>
+        <v>6.406668030231343</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-23.71080669795005</v>
+        <v>-23.60650420189933</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.09160867773548179</v>
+        <v>0.09655340012619117</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.03317904103858312</v>
+        <v>0.0332979521974206</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4024505922214116</v>
+        <v>-0.4009585958784376</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02161461033996383</v>
+        <v>-0.01878450703376461</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0604572299266545</v>
+        <v>-0.05901050101646634</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.333714648178845</v>
+        <v>-0.3323468215246073</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04366362299622355</v>
+        <v>0.04083132525870711</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.008092476966130246</v>
+        <v>-0.007559931488075378</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3493157050339397</v>
+        <v>-0.3519122210277223</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2447762215853776</v>
+        <v>0.2398117513917914</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1852892556049978</v>
+        <v>0.172184776114273</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2684295700852048</v>
+        <v>-0.277558633405164</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05290316029464955</v>
+        <v>0.05933045314959826</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0255510318956283</v>
+        <v>0.02575327235929772</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2549612974601786</v>
+        <v>-0.2509550799372414</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1218320999441689</v>
+        <v>0.1193133560626496</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.0711552808560058</v>
+        <v>0.07477739570478555</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.276141876809334</v>
+        <v>-0.2760824405021782</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>0.9721723572646668</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-19.86228753102557</v>
+        <v>-19.86228753102558</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1.776459077487624</v>
@@ -1948,7 +1948,7 @@
         <v>0.8437764154238581</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-20.50856733476005</v>
+        <v>-20.50856733476006</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.311249544572801</v>
+        <v>-1.926786889516786</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.693019105468057</v>
+        <v>-3.322614610576011</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-26.66080232316283</v>
+        <v>-26.63811927839063</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.072457429166193</v>
+        <v>-0.9482915532548298</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.06203428102319</v>
+        <v>-2.125236017801063</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-23.54790993528336</v>
+        <v>-23.27517612117554</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.8514730858052938</v>
+        <v>-0.4989891294192498</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.487648065230134</v>
+        <v>-1.667900200628738</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-23.51655561832806</v>
+        <v>-23.38057883050323</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.218385386249153</v>
+        <v>7.198576459419535</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.215412456869164</v>
+        <v>5.22165512357224</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-15.35160989997411</v>
+        <v>-15.61642651747088</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.529861863992908</v>
+        <v>4.98011813901812</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.059194503335072</v>
+        <v>4.274065358590485</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-15.85803920521404</v>
+        <v>-15.80051804250475</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.077196921219647</v>
+        <v>4.355520116652927</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.321546053337571</v>
+        <v>3.448043961127523</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-17.36393476387104</v>
+        <v>-16.96933720068789</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.01014342138821733</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.2072385114178657</v>
+        <v>-0.2072385114178658</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.01874987351417394</v>
@@ -2053,7 +2053,7 @@
         <v>0.008905750356948842</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.216460400555638</v>
+        <v>-0.2164604005556381</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02389765546471205</v>
+        <v>-0.02015853116563919</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.03845585931285999</v>
+        <v>-0.03469962279077402</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2845054700571482</v>
+        <v>-0.2809030805048996</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01100087701154796</v>
+        <v>-0.009812071600607895</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.02104988867762942</v>
+        <v>-0.02159024563843831</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2438372933321002</v>
+        <v>-0.2398235916621575</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.008687689451966608</v>
+        <v>-0.005228028449075066</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.01581084171278472</v>
+        <v>-0.01729834554202636</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2458222323424983</v>
+        <v>-0.2452593311272684</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.08023955052614326</v>
+        <v>0.07906928669870047</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.05812050048891433</v>
+        <v>0.05861235833709641</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1712942696268535</v>
+        <v>-0.174263186262047</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.04828145308191466</v>
+        <v>0.05326751140852019</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.04330365567185141</v>
+        <v>0.04566690107963538</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1685267790183955</v>
+        <v>-0.1682424775164344</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0437499206693096</v>
+        <v>0.04681022314992996</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.03568816931205886</v>
+        <v>0.03695808559440196</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1863355642259535</v>
+        <v>-0.183762981127246</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>5.022423697499815</v>
+        <v>4.965936282717059</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1.714321147717725</v>
+        <v>1.699405782374669</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-11.21944337387865</v>
+        <v>-11.04555467476576</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>3.001057604665321</v>
+        <v>3.222508051388046</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.491767824460716</v>
+        <v>-2.329961432593324</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-19.85547479478418</v>
+        <v>-19.60875166373358</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>4.66969604465828</v>
+        <v>4.647047061286851</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.1625064353849596</v>
+        <v>0.277882210926192</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-14.70102862606933</v>
+        <v>-14.93570025575316</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>9.84310986686911</v>
+        <v>10.01464105578231</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.458796573086333</v>
+        <v>6.515415190856776</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-6.083480236000467</v>
+        <v>-5.988349550480778</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.657975686140602</v>
+        <v>7.655317733695666</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.308788306294558</v>
+        <v>2.38807739153328</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-15.30136493998066</v>
+        <v>-15.28726678013895</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.042626565397454</v>
+        <v>8.141601907686583</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.678257882746082</v>
+        <v>3.735680458538199</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-11.45084790133414</v>
+        <v>-11.37171926713803</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>-0.001437753069386584</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.2752663456705512</v>
+        <v>-0.2752663456705513</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1146212950111216</v>
@@ -2267,7 +2267,7 @@
         <v>0.03553994123868547</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.2334892272988599</v>
+        <v>-0.23348922729886</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1004158117220018</v>
+        <v>0.1012280889060444</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.03447076939763349</v>
+        <v>0.03461160091901971</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2278509720178458</v>
+        <v>-0.2247948199203177</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.04621749218285342</v>
+        <v>0.0500534820577679</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.03833476633339711</v>
+        <v>-0.03584734016669397</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3048262465709999</v>
+        <v>-0.3045604968389142</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.08158261484944762</v>
+        <v>0.08229080880760024</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.00297856986598048</v>
+        <v>0.004879653993353339</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2581626683335816</v>
+        <v>-0.2606111021116708</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2102960488641189</v>
+        <v>0.2144562865448416</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1378139389744396</v>
+        <v>0.1385803120345258</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1296632409043148</v>
+        <v>-0.128569744094597</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1223245645737076</v>
+        <v>0.1224633373376153</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.03713132161391284</v>
+        <v>0.03810747186425718</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.2456279223852343</v>
+        <v>-0.2444991386377564</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1454668958277239</v>
+        <v>0.1479284492327655</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.06667627271734433</v>
+        <v>0.06788385862797776</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.2062874663195866</v>
+        <v>-0.2057410087446001</v>
       </c>
     </row>
     <row r="52">
